--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H2">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>44.18616009717341</v>
+        <v>157.4188559899613</v>
       </c>
       <c r="R2">
-        <v>44.18616009717341</v>
+        <v>1416.769703909652</v>
       </c>
       <c r="S2">
-        <v>0.00326013509885533</v>
+        <v>0.0102427801344648</v>
       </c>
       <c r="T2">
-        <v>0.00326013509885533</v>
+        <v>0.0102427801344648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H3">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>1129.230605165867</v>
+        <v>1207.414768497571</v>
       </c>
       <c r="R3">
-        <v>1129.230605165867</v>
+        <v>10866.73291647814</v>
       </c>
       <c r="S3">
-        <v>0.08331668383282734</v>
+        <v>0.07856291374404983</v>
       </c>
       <c r="T3">
-        <v>0.08331668383282734</v>
+        <v>0.07856291374404981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H4">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>631.4348122739754</v>
+        <v>739.9505254827106</v>
       </c>
       <c r="R4">
-        <v>631.4348122739754</v>
+        <v>6659.554729344396</v>
       </c>
       <c r="S4">
-        <v>0.04658840663244689</v>
+        <v>0.04814639577475029</v>
       </c>
       <c r="T4">
-        <v>0.04658840663244689</v>
+        <v>0.04814639577475028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H5">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>187.5350891739081</v>
+        <v>200.7583088513947</v>
       </c>
       <c r="R5">
-        <v>187.5350891739081</v>
+        <v>1806.824779662552</v>
       </c>
       <c r="S5">
-        <v>0.01383667929365812</v>
+        <v>0.01306275035986125</v>
       </c>
       <c r="T5">
-        <v>0.01383667929365812</v>
+        <v>0.01306275035986125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H6">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>115.0972586735675</v>
+        <v>387.8712631590276</v>
       </c>
       <c r="R6">
-        <v>115.0972586735675</v>
+        <v>3490.841368431249</v>
       </c>
       <c r="S6">
-        <v>0.00849208466991754</v>
+        <v>0.02523763779142448</v>
       </c>
       <c r="T6">
-        <v>0.00849208466991754</v>
+        <v>0.02523763779142448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H7">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>2941.449240645811</v>
+        <v>2975.002508237531</v>
       </c>
       <c r="R7">
-        <v>2941.449240645811</v>
+        <v>26775.02257413778</v>
       </c>
       <c r="S7">
-        <v>0.2170254643046977</v>
+        <v>0.1935746286537718</v>
       </c>
       <c r="T7">
-        <v>0.2170254643046977</v>
+        <v>0.1935746286537717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H8">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>1644.777816491965</v>
+        <v>1823.196739610836</v>
       </c>
       <c r="R8">
-        <v>1644.777816491965</v>
+        <v>16408.77065649752</v>
       </c>
       <c r="S8">
-        <v>0.1213546929077258</v>
+        <v>0.1186300283296288</v>
       </c>
       <c r="T8">
-        <v>0.1213546929077258</v>
+        <v>0.1186300283296288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H9">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>488.4962762446658</v>
+        <v>494.6572528060192</v>
       </c>
       <c r="R9">
-        <v>488.4962762446658</v>
+        <v>4451.915275254173</v>
       </c>
       <c r="S9">
-        <v>0.03604214198163013</v>
+        <v>0.03218588682116665</v>
       </c>
       <c r="T9">
-        <v>0.03604214198163013</v>
+        <v>0.03218588682116665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H10">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>93.59525689955022</v>
+        <v>342.2202326569117</v>
       </c>
       <c r="R10">
-        <v>93.59525689955022</v>
+        <v>3079.982093912205</v>
       </c>
       <c r="S10">
-        <v>0.006905627948515139</v>
+        <v>0.02226726003455183</v>
       </c>
       <c r="T10">
-        <v>0.006905627948515139</v>
+        <v>0.02226726003455183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H11">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>2391.93965614801</v>
+        <v>2624.855582834244</v>
       </c>
       <c r="R11">
-        <v>2391.93965614801</v>
+        <v>23623.70024550819</v>
       </c>
       <c r="S11">
-        <v>0.176481649688562</v>
+        <v>0.1707916021280712</v>
       </c>
       <c r="T11">
-        <v>0.176481649688562</v>
+        <v>0.1707916021280712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H12">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>1337.507113995239</v>
+        <v>1608.613144802968</v>
       </c>
       <c r="R12">
-        <v>1337.507113995239</v>
+        <v>14477.51830322671</v>
       </c>
       <c r="S12">
-        <v>0.09868370271856942</v>
+        <v>0.104667707435744</v>
       </c>
       <c r="T12">
-        <v>0.09868370271856942</v>
+        <v>0.104667707435744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H13">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>397.2373885920631</v>
+        <v>436.4379014882033</v>
       </c>
       <c r="R13">
-        <v>397.2373885920631</v>
+        <v>3927.941113393829</v>
       </c>
       <c r="S13">
-        <v>0.02930889559714113</v>
+        <v>0.02839772554042667</v>
       </c>
       <c r="T13">
-        <v>0.02930889559714113</v>
+        <v>0.02839772554042667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H14">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>47.70355243022169</v>
+        <v>161.8448718252237</v>
       </c>
       <c r="R14">
-        <v>47.70355243022169</v>
+        <v>1456.603846427013</v>
       </c>
       <c r="S14">
-        <v>0.003519654689971573</v>
+        <v>0.01053076791577063</v>
       </c>
       <c r="T14">
-        <v>0.003519654689971573</v>
+        <v>0.01053076791577063</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H15">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>1219.121807843784</v>
+        <v>1241.36265137026</v>
       </c>
       <c r="R15">
-        <v>1219.121807843784</v>
+        <v>11172.26386233233</v>
       </c>
       <c r="S15">
-        <v>0.08994901993725704</v>
+        <v>0.0807718022416113</v>
       </c>
       <c r="T15">
-        <v>0.08994901993725704</v>
+        <v>0.08077180224161129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H16">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>681.699509695699</v>
+        <v>760.7551026885443</v>
       </c>
       <c r="R16">
-        <v>681.699509695699</v>
+        <v>6846.795924196898</v>
       </c>
       <c r="S16">
-        <v>0.0502970272488916</v>
+        <v>0.04950008818198923</v>
       </c>
       <c r="T16">
-        <v>0.0502970272488916</v>
+        <v>0.04950008818198923</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H17">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>202.4636207183368</v>
+        <v>206.4028642539153</v>
       </c>
       <c r="R17">
-        <v>202.4636207183368</v>
+        <v>1857.625778285238</v>
       </c>
       <c r="S17">
-        <v>0.01493813344933331</v>
+        <v>0.0134300249127173</v>
       </c>
       <c r="T17">
-        <v>0.01493813344933331</v>
+        <v>0.0134300249127173</v>
       </c>
     </row>
   </sheetData>
